--- a/CashFlow/CARR_cashflow.xlsx
+++ b/CashFlow/CARR_cashflow.xlsx
@@ -254,19 +254,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>6703000000.0</v>
+        <v>-224000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>6405000000.0</v>
+        <v>-240000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5043000000.0</v>
+        <v>30000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3533000000.0</v>
+        <v>13000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1784000000.0</v>
+        <v>-36000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-2000000.0</v>
@@ -289,19 +289,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>7895000000.0</v>
+        <v>412000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>7496000000.0</v>
+        <v>237000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>5462000000.0</v>
+        <v>431000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3418000000.0</v>
+        <v>29000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1707000000.0</v>
+        <v>-93000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-296000000.0</v>
